--- a/Data/Commodore 64 Breadbin/250425/Data.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Retro-Toolbox\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175A137-13FA-48D2-8A5D-54FA70D25F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC007E1-141B-45DA-B6E3-8233F0F61569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>U1</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>Diode</t>
+  </si>
+  <si>
+    <t>[6526 Datasheet|mos_6526_cia.pdf],[6527 Datasheet|https://somewhere.xyz]</t>
+  </si>
+  <si>
+    <t>[The C64 PLA Dissected by Skoe|http://skoe.de/docs/c64-dissected/pla/c64_pla_dissected_a4ds.pdf],[Yes man|https://list.xyz/test]</t>
   </si>
 </sst>
 </file>
@@ -777,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,10 +914,10 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">

--- a/Data/Commodore 64 Breadbin/250425/Data.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Retro-Toolbox\Data\Commodore 64 Breadbin\250425\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC007E1-141B-45DA-B6E3-8233F0F61569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67482F55-D4EE-40F5-A8E2-72C37179F9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -53,13 +53,7 @@
     <t>CIA 2</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Print, Top</t>
-  </si>
-  <si>
-    <t>File</t>
   </si>
   <si>
     <t>Print top.JPG</t>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>[The C64 PLA Dissected by Skoe|http://skoe.de/docs/c64-dissected/pla/c64_pla_dissected_a4ds.pdf],[Yes man|https://list.xyz/test]</t>
+  </si>
+  <si>
+    <t>File (GIF/JPG/PNG)</t>
+  </si>
+  <si>
+    <t>Name in list</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,13 +784,13 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" customWidth="1"/>
     <col min="3" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
@@ -799,96 +799,96 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
@@ -902,25 +902,25 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -931,147 +931,147 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
         <v>8701</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>7406</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Commodore 64 Breadbin/250425/Data.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64 Breadbin\250425\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67482F55-D4EE-40F5-A8E2-72C37179F9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34C080-67ED-4F43-8F00-14B8AFB8197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>U1</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>Name in list</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U27</t>
+  </si>
+  <si>
+    <t>Hest1</t>
   </si>
 </sst>
 </file>
@@ -447,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -465,7 +474,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,282 +811,318 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B18" s="1">
         <v>6526</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B19" s="1">
         <v>6526</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B23" s="1">
         <v>8701</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B24" s="1">
         <v>7406</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B29" s="1">
         <v>123</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/Commodore 64 Breadbin/250425/Data.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250425\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34C080-67ED-4F43-8F00-14B8AFB8197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D2542-3166-4018-9125-FD11F89A074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>U1</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>Hest1</t>
+  </si>
+  <si>
+    <t>Traces Top.png</t>
+  </si>
+  <si>
+    <t>Traces, Top</t>
   </si>
 </sst>
 </file>
@@ -795,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,6 +882,14 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">

--- a/Data/Commodore 64 Breadbin/250425/Data.xlsx
+++ b/Data/Commodore 64 Breadbin/250425/Data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64 Breadbin\250425\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D2542-3166-4018-9125-FD11F89A074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDDA427-8760-408E-845A-723BDB56C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Trivia" sheetId="2" r:id="rId2"/>
-    <sheet name="Troubleshooting" sheetId="3" r:id="rId3"/>
-    <sheet name="Links" sheetId="4" r:id="rId4"/>
+    <sheet name="Images" sheetId="5" r:id="rId1"/>
+    <sheet name="Components" sheetId="1" r:id="rId2"/>
+    <sheet name="Trivia" sheetId="2" r:id="rId3"/>
+    <sheet name="Troubleshooting" sheetId="3" r:id="rId4"/>
+    <sheet name="Links" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>U1</t>
   </si>
@@ -334,6 +335,12 @@
   </si>
   <si>
     <t>Traces, Top</t>
+  </si>
+  <si>
+    <t>Traces, Back</t>
+  </si>
+  <si>
+    <t>Traces Back.png</t>
   </si>
 </sst>
 </file>
@@ -798,23 +805,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE540033-8957-4DA1-A0DC-D0213D2D2959}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -829,308 +830,74 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6526</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6526</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1">
-        <v>7406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="1">
-        <v>8701</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1">
-        <v>7406</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1143,37 +910,373 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6526</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6526</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8701</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7406</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>